--- a/Luban/Config/Datas/VFXSkillModelBase.xlsx
+++ b/Luban/Config/Datas/VFXSkillModelBase.xlsx
@@ -32,7 +32,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0">
+    <comment ref="E3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>##var</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>ResName</t>
+  </si>
+  <si>
+    <t>DealyHit</t>
   </si>
   <si>
     <t>ReleaseType</t>
@@ -83,6 +86,9 @@
     <t>string</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>##</t>
   </si>
   <si>
@@ -90,6 +96,9 @@
   </si>
   <si>
     <t>特效资源</t>
+  </si>
+  <si>
+    <t>延迟命中参数</t>
   </si>
   <si>
     <t>释放类型</t>
@@ -1224,24 +1233,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V225"/>
+  <dimension ref="A1:W225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="2" width="9.12037037037037" customWidth="1"/>
     <col min="3" max="3" width="21.4166666666667" customWidth="1"/>
-    <col min="4" max="4" width="14.4907407407407" customWidth="1"/>
-    <col min="5" max="5" width="10.6759259259259" customWidth="1"/>
-    <col min="6" max="7" width="40.6296296296296" customWidth="1"/>
-    <col min="8" max="8" width="14.5092592592593" customWidth="1"/>
-    <col min="9" max="10" width="40.6296296296296" customWidth="1"/>
+    <col min="4" max="5" width="14.4907407407407" customWidth="1"/>
+    <col min="6" max="6" width="10.6759259259259" customWidth="1"/>
+    <col min="7" max="8" width="40.6296296296296" customWidth="1"/>
+    <col min="9" max="9" width="14.5092592592593" customWidth="1"/>
+    <col min="10" max="11" width="40.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:22">
+    <row r="1" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:23">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1254,7 +1263,9 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1"/>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="F1"/>
       <c r="G1"/>
       <c r="H1"/>
@@ -1272,21 +1283,24 @@
       <c r="T1"/>
       <c r="U1"/>
       <c r="V1"/>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="18.5" customHeight="1" spans="1:22">
+      <c r="W1"/>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="18.5" customHeight="1" spans="1:23">
       <c r="A2" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
@@ -1304,21 +1318,24 @@
       <c r="T2"/>
       <c r="U2"/>
       <c r="V2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:22">
+      <c r="W2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:23">
       <c r="A3" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3"/>
+        <v>12</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3"/>
@@ -1336,927 +1353,937 @@
       <c r="T3"/>
       <c r="U3"/>
       <c r="V3"/>
-    </row>
-    <row r="4" ht="18.5" customHeight="1" spans="1:5">
+      <c r="W3"/>
+    </row>
+    <row r="4" ht="18.5" customHeight="1" spans="1:6">
       <c r="A4" s="9"/>
       <c r="B4" s="10">
         <v>1</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D4" s="11">
+        <v>0.53</v>
+      </c>
+      <c r="E4" s="11">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" ht="18.5" customHeight="1" spans="1:5">
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" ht="18.5" customHeight="1" spans="1:6">
       <c r="A5" s="9"/>
       <c r="B5" s="10">
         <v>2</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="E5" s="11">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" ht="18.5" customHeight="1" spans="1:5">
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="18.5" customHeight="1" spans="1:6">
       <c r="A6" s="9"/>
       <c r="B6" s="10">
         <v>3</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D6" s="11">
+        <v>0.55</v>
+      </c>
+      <c r="E6" s="11">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="5:6">
-      <c r="E7" s="12"/>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="6:7">
       <c r="F7" s="12"/>
-    </row>
-    <row r="8" spans="5:6">
-      <c r="E8" s="12"/>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="6:7">
       <c r="F8" s="12"/>
-    </row>
-    <row r="9" spans="5:6">
-      <c r="E9" s="12"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="6:7">
       <c r="F9" s="12"/>
-    </row>
-    <row r="10" ht="13" customHeight="1" spans="5:6">
-      <c r="E10" s="12"/>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" ht="13" customHeight="1" spans="6:7">
       <c r="F10" s="12"/>
-    </row>
-    <row r="11" spans="5:6">
-      <c r="E11" s="12"/>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="6:7">
       <c r="F11" s="12"/>
-    </row>
-    <row r="12" spans="5:6">
-      <c r="E12" s="12"/>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="6:7">
       <c r="F12" s="12"/>
-    </row>
-    <row r="13" spans="5:6">
-      <c r="E13" s="12"/>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="6:7">
       <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="5:6">
-      <c r="E14" s="12"/>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="6:7">
       <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="5:6">
-      <c r="E15" s="12"/>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="6:7">
       <c r="F15" s="12"/>
-    </row>
-    <row r="16" spans="5:6">
-      <c r="E16" s="12"/>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="6:7">
       <c r="F16" s="12"/>
-    </row>
-    <row r="17" spans="5:6">
-      <c r="E17" s="12"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="6:7">
       <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="5:6">
-      <c r="E18" s="12"/>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="6:7">
       <c r="F18" s="12"/>
-    </row>
-    <row r="19" spans="5:6">
-      <c r="E19" s="12"/>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="6:7">
       <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="5:6">
-      <c r="E20" s="12"/>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="6:7">
       <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="5:6">
-      <c r="E21" s="12"/>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="6:7">
       <c r="F21" s="12"/>
-    </row>
-    <row r="22" spans="5:6">
-      <c r="E22" s="12"/>
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" spans="6:7">
       <c r="F22" s="12"/>
-    </row>
-    <row r="23" spans="5:6">
-      <c r="E23" s="12"/>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="6:7">
       <c r="F23" s="12"/>
-    </row>
-    <row r="24" spans="5:6">
-      <c r="E24" s="12"/>
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" spans="6:7">
       <c r="F24" s="12"/>
-    </row>
-    <row r="25" spans="5:6">
-      <c r="E25" s="12"/>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" spans="6:7">
       <c r="F25" s="12"/>
-    </row>
-    <row r="26" spans="5:6">
-      <c r="E26" s="12"/>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" spans="6:7">
       <c r="F26" s="12"/>
-    </row>
-    <row r="27" spans="5:6">
-      <c r="E27" s="12"/>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="6:7">
       <c r="F27" s="12"/>
-    </row>
-    <row r="28" spans="5:6">
-      <c r="E28" s="12"/>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="6:7">
       <c r="F28" s="12"/>
-    </row>
-    <row r="29" spans="5:6">
-      <c r="E29" s="12"/>
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="6:7">
       <c r="F29" s="12"/>
-    </row>
-    <row r="30" spans="5:6">
-      <c r="E30" s="12"/>
+      <c r="G29" s="12"/>
+    </row>
+    <row r="30" spans="6:7">
       <c r="F30" s="12"/>
-    </row>
-    <row r="31" spans="5:6">
-      <c r="E31" s="12"/>
+      <c r="G30" s="12"/>
+    </row>
+    <row r="31" spans="6:7">
       <c r="F31" s="12"/>
-    </row>
-    <row r="32" spans="5:6">
-      <c r="E32" s="12"/>
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" spans="6:7">
       <c r="F32" s="12"/>
-    </row>
-    <row r="33" spans="5:6">
-      <c r="E33" s="12"/>
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" spans="6:7">
       <c r="F33" s="12"/>
-    </row>
-    <row r="34" spans="5:6">
-      <c r="E34" s="12"/>
+      <c r="G33" s="12"/>
+    </row>
+    <row r="34" spans="6:7">
       <c r="F34" s="12"/>
-    </row>
-    <row r="35" spans="5:6">
-      <c r="E35" s="12"/>
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" spans="6:7">
       <c r="F35" s="12"/>
-    </row>
-    <row r="36" spans="5:6">
-      <c r="E36" s="12"/>
+      <c r="G35" s="12"/>
+    </row>
+    <row r="36" spans="6:7">
       <c r="F36" s="12"/>
-    </row>
-    <row r="37" spans="5:6">
-      <c r="E37" s="12"/>
+      <c r="G36" s="12"/>
+    </row>
+    <row r="37" spans="6:7">
       <c r="F37" s="12"/>
-    </row>
-    <row r="38" spans="5:6">
-      <c r="E38" s="12"/>
+      <c r="G37" s="12"/>
+    </row>
+    <row r="38" spans="6:7">
       <c r="F38" s="12"/>
-    </row>
-    <row r="39" spans="5:6">
-      <c r="E39" s="12"/>
+      <c r="G38" s="12"/>
+    </row>
+    <row r="39" spans="6:7">
       <c r="F39" s="12"/>
-    </row>
-    <row r="40" spans="5:6">
-      <c r="E40" s="12"/>
+      <c r="G39" s="12"/>
+    </row>
+    <row r="40" spans="6:7">
       <c r="F40" s="12"/>
-    </row>
-    <row r="41" spans="5:6">
-      <c r="E41" s="12"/>
+      <c r="G40" s="12"/>
+    </row>
+    <row r="41" spans="6:7">
       <c r="F41" s="12"/>
-    </row>
-    <row r="42" spans="5:6">
-      <c r="E42" s="12"/>
+      <c r="G41" s="12"/>
+    </row>
+    <row r="42" spans="6:7">
       <c r="F42" s="12"/>
-    </row>
-    <row r="43" spans="5:6">
-      <c r="E43" s="12"/>
+      <c r="G42" s="12"/>
+    </row>
+    <row r="43" spans="6:7">
       <c r="F43" s="12"/>
-    </row>
-    <row r="44" spans="5:6">
-      <c r="E44" s="12"/>
+      <c r="G43" s="12"/>
+    </row>
+    <row r="44" spans="6:7">
       <c r="F44" s="12"/>
-    </row>
-    <row r="45" spans="5:6">
-      <c r="E45" s="12"/>
+      <c r="G44" s="12"/>
+    </row>
+    <row r="45" spans="6:7">
       <c r="F45" s="12"/>
-    </row>
-    <row r="46" spans="5:6">
-      <c r="E46" s="12"/>
+      <c r="G45" s="12"/>
+    </row>
+    <row r="46" spans="6:7">
       <c r="F46" s="12"/>
-    </row>
-    <row r="47" spans="5:6">
-      <c r="E47" s="12"/>
+      <c r="G46" s="12"/>
+    </row>
+    <row r="47" spans="6:7">
       <c r="F47" s="12"/>
-    </row>
-    <row r="48" spans="5:6">
-      <c r="E48" s="12"/>
+      <c r="G47" s="12"/>
+    </row>
+    <row r="48" spans="6:7">
       <c r="F48" s="12"/>
-    </row>
-    <row r="49" spans="5:6">
-      <c r="E49" s="12"/>
+      <c r="G48" s="12"/>
+    </row>
+    <row r="49" spans="6:7">
       <c r="F49" s="12"/>
-    </row>
-    <row r="50" spans="5:6">
-      <c r="E50" s="12"/>
+      <c r="G49" s="12"/>
+    </row>
+    <row r="50" spans="6:7">
       <c r="F50" s="12"/>
-    </row>
-    <row r="51" spans="5:6">
-      <c r="E51" s="12"/>
+      <c r="G50" s="12"/>
+    </row>
+    <row r="51" spans="6:7">
       <c r="F51" s="12"/>
-    </row>
-    <row r="52" spans="5:6">
-      <c r="E52" s="12"/>
+      <c r="G51" s="12"/>
+    </row>
+    <row r="52" spans="6:7">
       <c r="F52" s="12"/>
-    </row>
-    <row r="53" spans="5:6">
-      <c r="E53" s="12"/>
+      <c r="G52" s="12"/>
+    </row>
+    <row r="53" spans="6:7">
       <c r="F53" s="12"/>
-    </row>
-    <row r="54" spans="5:6">
-      <c r="E54" s="12"/>
+      <c r="G53" s="12"/>
+    </row>
+    <row r="54" spans="6:7">
       <c r="F54" s="12"/>
-    </row>
-    <row r="55" spans="5:6">
-      <c r="E55" s="12"/>
+      <c r="G54" s="12"/>
+    </row>
+    <row r="55" spans="6:7">
       <c r="F55" s="12"/>
-    </row>
-    <row r="56" spans="5:6">
-      <c r="E56" s="12"/>
+      <c r="G55" s="12"/>
+    </row>
+    <row r="56" spans="6:7">
       <c r="F56" s="12"/>
-    </row>
-    <row r="57" spans="5:6">
-      <c r="E57" s="12"/>
+      <c r="G56" s="12"/>
+    </row>
+    <row r="57" spans="6:7">
       <c r="F57" s="12"/>
-    </row>
-    <row r="58" spans="5:6">
-      <c r="E58" s="12"/>
+      <c r="G57" s="12"/>
+    </row>
+    <row r="58" spans="6:7">
       <c r="F58" s="12"/>
-    </row>
-    <row r="59" spans="5:6">
-      <c r="E59" s="12"/>
+      <c r="G58" s="12"/>
+    </row>
+    <row r="59" spans="6:7">
       <c r="F59" s="12"/>
-    </row>
-    <row r="60" spans="5:6">
-      <c r="E60" s="12"/>
+      <c r="G59" s="12"/>
+    </row>
+    <row r="60" spans="6:7">
       <c r="F60" s="12"/>
-    </row>
-    <row r="61" spans="5:6">
-      <c r="E61" s="12"/>
+      <c r="G60" s="12"/>
+    </row>
+    <row r="61" spans="6:7">
       <c r="F61" s="12"/>
-    </row>
-    <row r="62" spans="5:6">
-      <c r="E62" s="12"/>
+      <c r="G61" s="12"/>
+    </row>
+    <row r="62" spans="6:7">
       <c r="F62" s="12"/>
-    </row>
-    <row r="63" spans="5:6">
-      <c r="E63" s="12"/>
+      <c r="G62" s="12"/>
+    </row>
+    <row r="63" spans="6:7">
       <c r="F63" s="12"/>
-    </row>
-    <row r="64" spans="5:6">
-      <c r="E64" s="12"/>
+      <c r="G63" s="12"/>
+    </row>
+    <row r="64" spans="6:7">
       <c r="F64" s="12"/>
-    </row>
-    <row r="65" spans="5:6">
-      <c r="E65" s="12"/>
+      <c r="G64" s="12"/>
+    </row>
+    <row r="65" spans="6:7">
       <c r="F65" s="12"/>
-    </row>
-    <row r="66" spans="5:6">
-      <c r="E66" s="12"/>
+      <c r="G65" s="12"/>
+    </row>
+    <row r="66" spans="6:7">
       <c r="F66" s="12"/>
-    </row>
-    <row r="67" spans="5:6">
-      <c r="E67" s="12"/>
+      <c r="G66" s="12"/>
+    </row>
+    <row r="67" spans="6:7">
       <c r="F67" s="12"/>
-    </row>
-    <row r="68" spans="5:6">
-      <c r="E68" s="12"/>
+      <c r="G67" s="12"/>
+    </row>
+    <row r="68" spans="6:7">
       <c r="F68" s="12"/>
-    </row>
-    <row r="69" spans="5:6">
-      <c r="E69" s="12"/>
+      <c r="G68" s="12"/>
+    </row>
+    <row r="69" spans="6:7">
       <c r="F69" s="12"/>
-    </row>
-    <row r="70" spans="5:6">
-      <c r="E70" s="12"/>
+      <c r="G69" s="12"/>
+    </row>
+    <row r="70" spans="6:7">
       <c r="F70" s="12"/>
-    </row>
-    <row r="71" spans="5:6">
-      <c r="E71" s="12"/>
+      <c r="G70" s="12"/>
+    </row>
+    <row r="71" spans="6:7">
       <c r="F71" s="12"/>
-    </row>
-    <row r="72" spans="5:6">
-      <c r="E72" s="12"/>
+      <c r="G71" s="12"/>
+    </row>
+    <row r="72" spans="6:7">
       <c r="F72" s="12"/>
-    </row>
-    <row r="73" spans="5:6">
-      <c r="E73" s="12"/>
+      <c r="G72" s="12"/>
+    </row>
+    <row r="73" spans="6:7">
       <c r="F73" s="12"/>
-    </row>
-    <row r="74" spans="5:6">
-      <c r="E74" s="12"/>
+      <c r="G73" s="12"/>
+    </row>
+    <row r="74" spans="6:7">
       <c r="F74" s="12"/>
-    </row>
-    <row r="75" spans="5:6">
-      <c r="E75" s="12"/>
+      <c r="G74" s="12"/>
+    </row>
+    <row r="75" spans="6:7">
       <c r="F75" s="12"/>
-    </row>
-    <row r="76" spans="5:6">
-      <c r="E76" s="12"/>
+      <c r="G75" s="12"/>
+    </row>
+    <row r="76" spans="6:7">
       <c r="F76" s="12"/>
-    </row>
-    <row r="77" spans="5:6">
-      <c r="E77" s="12"/>
+      <c r="G76" s="12"/>
+    </row>
+    <row r="77" spans="6:7">
       <c r="F77" s="12"/>
-    </row>
-    <row r="78" spans="5:6">
-      <c r="E78" s="12"/>
+      <c r="G77" s="12"/>
+    </row>
+    <row r="78" spans="6:7">
       <c r="F78" s="12"/>
-    </row>
-    <row r="79" spans="5:6">
-      <c r="E79" s="12"/>
+      <c r="G78" s="12"/>
+    </row>
+    <row r="79" spans="6:7">
       <c r="F79" s="12"/>
-    </row>
-    <row r="80" spans="5:6">
-      <c r="E80" s="12"/>
+      <c r="G79" s="12"/>
+    </row>
+    <row r="80" spans="6:7">
       <c r="F80" s="12"/>
-    </row>
-    <row r="81" spans="5:6">
-      <c r="E81" s="12"/>
+      <c r="G80" s="12"/>
+    </row>
+    <row r="81" spans="6:7">
       <c r="F81" s="12"/>
-    </row>
-    <row r="82" spans="5:6">
-      <c r="E82" s="12"/>
+      <c r="G81" s="12"/>
+    </row>
+    <row r="82" spans="6:7">
       <c r="F82" s="12"/>
-    </row>
-    <row r="83" spans="5:6">
-      <c r="E83" s="12"/>
+      <c r="G82" s="12"/>
+    </row>
+    <row r="83" spans="6:7">
       <c r="F83" s="12"/>
-    </row>
-    <row r="84" spans="5:6">
-      <c r="E84" s="12"/>
+      <c r="G83" s="12"/>
+    </row>
+    <row r="84" spans="6:7">
       <c r="F84" s="12"/>
-    </row>
-    <row r="85" spans="5:6">
-      <c r="E85" s="12"/>
+      <c r="G84" s="12"/>
+    </row>
+    <row r="85" spans="6:7">
       <c r="F85" s="12"/>
-    </row>
-    <row r="86" spans="5:6">
-      <c r="E86" s="12"/>
+      <c r="G85" s="12"/>
+    </row>
+    <row r="86" spans="6:7">
       <c r="F86" s="12"/>
-    </row>
-    <row r="87" spans="5:6">
-      <c r="E87" s="12"/>
+      <c r="G86" s="12"/>
+    </row>
+    <row r="87" spans="6:7">
       <c r="F87" s="12"/>
-    </row>
-    <row r="88" spans="5:6">
-      <c r="E88" s="12"/>
+      <c r="G87" s="12"/>
+    </row>
+    <row r="88" spans="6:7">
       <c r="F88" s="12"/>
-    </row>
-    <row r="89" spans="5:6">
-      <c r="E89" s="12"/>
+      <c r="G88" s="12"/>
+    </row>
+    <row r="89" spans="6:7">
       <c r="F89" s="12"/>
-    </row>
-    <row r="90" spans="5:6">
-      <c r="E90" s="12"/>
+      <c r="G89" s="12"/>
+    </row>
+    <row r="90" spans="6:7">
       <c r="F90" s="12"/>
-    </row>
-    <row r="91" spans="5:6">
-      <c r="E91" s="12"/>
+      <c r="G90" s="12"/>
+    </row>
+    <row r="91" spans="6:7">
       <c r="F91" s="12"/>
-    </row>
-    <row r="92" spans="5:6">
-      <c r="E92" s="12"/>
+      <c r="G91" s="12"/>
+    </row>
+    <row r="92" spans="6:7">
       <c r="F92" s="12"/>
-    </row>
-    <row r="93" spans="5:6">
-      <c r="E93" s="12"/>
+      <c r="G92" s="12"/>
+    </row>
+    <row r="93" spans="6:7">
       <c r="F93" s="12"/>
-    </row>
-    <row r="94" spans="5:6">
-      <c r="E94" s="12"/>
+      <c r="G93" s="12"/>
+    </row>
+    <row r="94" spans="6:7">
       <c r="F94" s="12"/>
-    </row>
-    <row r="95" spans="5:6">
-      <c r="E95" s="12"/>
+      <c r="G94" s="12"/>
+    </row>
+    <row r="95" spans="6:7">
       <c r="F95" s="12"/>
-    </row>
-    <row r="96" spans="5:6">
-      <c r="E96" s="12"/>
+      <c r="G95" s="12"/>
+    </row>
+    <row r="96" spans="6:7">
       <c r="F96" s="12"/>
-    </row>
-    <row r="97" spans="5:6">
-      <c r="E97" s="12"/>
+      <c r="G96" s="12"/>
+    </row>
+    <row r="97" spans="6:7">
       <c r="F97" s="12"/>
-    </row>
-    <row r="98" spans="5:6">
-      <c r="E98" s="12"/>
+      <c r="G97" s="12"/>
+    </row>
+    <row r="98" spans="6:7">
       <c r="F98" s="12"/>
-    </row>
-    <row r="99" spans="5:6">
-      <c r="E99" s="12"/>
+      <c r="G98" s="12"/>
+    </row>
+    <row r="99" spans="6:7">
       <c r="F99" s="12"/>
-    </row>
-    <row r="100" spans="5:6">
-      <c r="E100" s="12"/>
+      <c r="G99" s="12"/>
+    </row>
+    <row r="100" spans="6:7">
       <c r="F100" s="12"/>
-    </row>
-    <row r="101" spans="5:6">
-      <c r="E101" s="12"/>
+      <c r="G100" s="12"/>
+    </row>
+    <row r="101" spans="6:7">
       <c r="F101" s="12"/>
-    </row>
-    <row r="102" spans="5:6">
-      <c r="E102" s="12"/>
+      <c r="G101" s="12"/>
+    </row>
+    <row r="102" spans="6:7">
       <c r="F102" s="12"/>
-    </row>
-    <row r="103" spans="5:6">
-      <c r="E103" s="12"/>
+      <c r="G102" s="12"/>
+    </row>
+    <row r="103" spans="6:7">
       <c r="F103" s="12"/>
-    </row>
-    <row r="104" spans="5:6">
-      <c r="E104" s="12"/>
+      <c r="G103" s="12"/>
+    </row>
+    <row r="104" spans="6:7">
       <c r="F104" s="12"/>
-    </row>
-    <row r="105" spans="5:6">
-      <c r="E105" s="12"/>
+      <c r="G104" s="12"/>
+    </row>
+    <row r="105" spans="6:7">
       <c r="F105" s="12"/>
-    </row>
-    <row r="106" spans="5:6">
-      <c r="E106" s="12"/>
+      <c r="G105" s="12"/>
+    </row>
+    <row r="106" spans="6:7">
       <c r="F106" s="12"/>
-    </row>
-    <row r="107" spans="5:6">
-      <c r="E107" s="12"/>
+      <c r="G106" s="12"/>
+    </row>
+    <row r="107" spans="6:7">
       <c r="F107" s="12"/>
-    </row>
-    <row r="108" spans="5:6">
-      <c r="E108" s="12"/>
+      <c r="G107" s="12"/>
+    </row>
+    <row r="108" spans="6:7">
       <c r="F108" s="12"/>
-    </row>
-    <row r="109" spans="5:6">
-      <c r="E109" s="12"/>
+      <c r="G108" s="12"/>
+    </row>
+    <row r="109" spans="6:7">
       <c r="F109" s="12"/>
-    </row>
-    <row r="110" spans="5:6">
-      <c r="E110" s="12"/>
+      <c r="G109" s="12"/>
+    </row>
+    <row r="110" spans="6:7">
       <c r="F110" s="12"/>
-    </row>
-    <row r="111" spans="5:6">
-      <c r="E111" s="12"/>
+      <c r="G110" s="12"/>
+    </row>
+    <row r="111" spans="6:7">
       <c r="F111" s="12"/>
-    </row>
-    <row r="112" spans="5:6">
-      <c r="E112" s="12"/>
+      <c r="G111" s="12"/>
+    </row>
+    <row r="112" spans="6:7">
       <c r="F112" s="12"/>
-    </row>
-    <row r="113" spans="5:6">
-      <c r="E113" s="12"/>
+      <c r="G112" s="12"/>
+    </row>
+    <row r="113" spans="6:7">
       <c r="F113" s="12"/>
-    </row>
-    <row r="114" spans="5:6">
-      <c r="E114" s="12"/>
+      <c r="G113" s="12"/>
+    </row>
+    <row r="114" spans="6:7">
       <c r="F114" s="12"/>
-    </row>
-    <row r="115" spans="5:6">
-      <c r="E115" s="12"/>
+      <c r="G114" s="12"/>
+    </row>
+    <row r="115" spans="6:7">
       <c r="F115" s="12"/>
-    </row>
-    <row r="116" spans="5:6">
-      <c r="E116" s="12"/>
+      <c r="G115" s="12"/>
+    </row>
+    <row r="116" spans="6:7">
       <c r="F116" s="12"/>
-    </row>
-    <row r="117" spans="5:6">
-      <c r="E117" s="12"/>
+      <c r="G116" s="12"/>
+    </row>
+    <row r="117" spans="6:7">
       <c r="F117" s="12"/>
-    </row>
-    <row r="118" spans="5:6">
-      <c r="E118" s="12"/>
+      <c r="G117" s="12"/>
+    </row>
+    <row r="118" spans="6:7">
       <c r="F118" s="12"/>
-    </row>
-    <row r="119" spans="5:6">
-      <c r="E119" s="12"/>
+      <c r="G118" s="12"/>
+    </row>
+    <row r="119" spans="6:7">
       <c r="F119" s="12"/>
-    </row>
-    <row r="120" spans="5:6">
-      <c r="E120" s="12"/>
+      <c r="G119" s="12"/>
+    </row>
+    <row r="120" spans="6:7">
       <c r="F120" s="12"/>
-    </row>
-    <row r="121" spans="5:6">
-      <c r="E121" s="12"/>
+      <c r="G120" s="12"/>
+    </row>
+    <row r="121" spans="6:7">
       <c r="F121" s="12"/>
-    </row>
-    <row r="122" spans="5:6">
-      <c r="E122" s="12"/>
+      <c r="G121" s="12"/>
+    </row>
+    <row r="122" spans="6:7">
       <c r="F122" s="12"/>
-    </row>
-    <row r="123" spans="5:6">
-      <c r="E123" s="12"/>
+      <c r="G122" s="12"/>
+    </row>
+    <row r="123" spans="6:7">
       <c r="F123" s="12"/>
-    </row>
-    <row r="124" spans="5:6">
-      <c r="E124" s="12"/>
+      <c r="G123" s="12"/>
+    </row>
+    <row r="124" spans="6:7">
       <c r="F124" s="12"/>
-    </row>
-    <row r="125" spans="5:6">
-      <c r="E125" s="12"/>
+      <c r="G124" s="12"/>
+    </row>
+    <row r="125" spans="6:7">
       <c r="F125" s="12"/>
-    </row>
-    <row r="126" spans="5:6">
-      <c r="E126" s="12"/>
+      <c r="G125" s="12"/>
+    </row>
+    <row r="126" spans="6:7">
       <c r="F126" s="12"/>
-    </row>
-    <row r="127" spans="5:6">
-      <c r="E127" s="12"/>
+      <c r="G126" s="12"/>
+    </row>
+    <row r="127" spans="6:7">
       <c r="F127" s="12"/>
-    </row>
-    <row r="128" spans="5:6">
-      <c r="E128" s="12"/>
+      <c r="G127" s="12"/>
+    </row>
+    <row r="128" spans="6:7">
       <c r="F128" s="12"/>
-    </row>
-    <row r="129" spans="5:6">
-      <c r="E129" s="12"/>
+      <c r="G128" s="12"/>
+    </row>
+    <row r="129" spans="6:7">
       <c r="F129" s="12"/>
-    </row>
-    <row r="130" spans="5:6">
-      <c r="E130" s="12"/>
+      <c r="G129" s="12"/>
+    </row>
+    <row r="130" spans="6:7">
       <c r="F130" s="12"/>
-    </row>
-    <row r="131" spans="5:6">
-      <c r="E131" s="12"/>
+      <c r="G130" s="12"/>
+    </row>
+    <row r="131" spans="6:7">
       <c r="F131" s="12"/>
-    </row>
-    <row r="132" spans="5:6">
-      <c r="E132" s="12"/>
+      <c r="G131" s="12"/>
+    </row>
+    <row r="132" spans="6:7">
       <c r="F132" s="12"/>
-    </row>
-    <row r="133" spans="5:6">
-      <c r="E133" s="12"/>
+      <c r="G132" s="12"/>
+    </row>
+    <row r="133" spans="6:7">
       <c r="F133" s="12"/>
-    </row>
-    <row r="134" spans="5:6">
-      <c r="E134" s="12"/>
+      <c r="G133" s="12"/>
+    </row>
+    <row r="134" spans="6:7">
       <c r="F134" s="12"/>
-    </row>
-    <row r="135" spans="5:6">
-      <c r="E135" s="12"/>
+      <c r="G134" s="12"/>
+    </row>
+    <row r="135" spans="6:7">
       <c r="F135" s="12"/>
-    </row>
-    <row r="136" spans="5:6">
-      <c r="E136" s="12"/>
+      <c r="G135" s="12"/>
+    </row>
+    <row r="136" spans="6:7">
       <c r="F136" s="12"/>
-    </row>
-    <row r="137" spans="5:6">
-      <c r="E137" s="12"/>
+      <c r="G136" s="12"/>
+    </row>
+    <row r="137" spans="6:7">
       <c r="F137" s="12"/>
-    </row>
-    <row r="138" spans="5:6">
-      <c r="E138" s="12"/>
+      <c r="G137" s="12"/>
+    </row>
+    <row r="138" spans="6:7">
       <c r="F138" s="12"/>
-    </row>
-    <row r="139" spans="5:6">
-      <c r="E139" s="12"/>
+      <c r="G138" s="12"/>
+    </row>
+    <row r="139" spans="6:7">
       <c r="F139" s="12"/>
-    </row>
-    <row r="140" spans="5:6">
-      <c r="E140" s="12"/>
+      <c r="G139" s="12"/>
+    </row>
+    <row r="140" spans="6:7">
       <c r="F140" s="12"/>
-    </row>
-    <row r="141" spans="5:6">
-      <c r="E141" s="12"/>
+      <c r="G140" s="12"/>
+    </row>
+    <row r="141" spans="6:7">
       <c r="F141" s="12"/>
-    </row>
-    <row r="142" spans="5:6">
-      <c r="E142" s="12"/>
+      <c r="G141" s="12"/>
+    </row>
+    <row r="142" spans="6:7">
       <c r="F142" s="12"/>
-    </row>
-    <row r="143" spans="5:6">
-      <c r="E143" s="12"/>
+      <c r="G142" s="12"/>
+    </row>
+    <row r="143" spans="6:7">
       <c r="F143" s="12"/>
-    </row>
-    <row r="144" spans="5:6">
-      <c r="E144" s="12"/>
+      <c r="G143" s="12"/>
+    </row>
+    <row r="144" spans="6:7">
       <c r="F144" s="12"/>
-    </row>
-    <row r="145" spans="5:6">
-      <c r="E145" s="12"/>
+      <c r="G144" s="12"/>
+    </row>
+    <row r="145" spans="6:7">
       <c r="F145" s="12"/>
-    </row>
-    <row r="146" spans="5:6">
-      <c r="E146" s="12"/>
+      <c r="G145" s="12"/>
+    </row>
+    <row r="146" spans="6:7">
       <c r="F146" s="12"/>
-    </row>
-    <row r="147" spans="5:6">
-      <c r="E147" s="12"/>
+      <c r="G146" s="12"/>
+    </row>
+    <row r="147" spans="6:7">
       <c r="F147" s="12"/>
-    </row>
-    <row r="148" spans="5:6">
-      <c r="E148" s="12"/>
+      <c r="G147" s="12"/>
+    </row>
+    <row r="148" spans="6:7">
       <c r="F148" s="12"/>
-    </row>
-    <row r="149" spans="5:6">
-      <c r="E149" s="12"/>
+      <c r="G148" s="12"/>
+    </row>
+    <row r="149" spans="6:7">
       <c r="F149" s="12"/>
-    </row>
-    <row r="150" spans="5:6">
-      <c r="E150" s="12"/>
+      <c r="G149" s="12"/>
+    </row>
+    <row r="150" spans="6:7">
       <c r="F150" s="12"/>
-    </row>
-    <row r="151" spans="5:6">
-      <c r="E151" s="12"/>
+      <c r="G150" s="12"/>
+    </row>
+    <row r="151" spans="6:7">
       <c r="F151" s="12"/>
-    </row>
-    <row r="152" spans="5:6">
-      <c r="E152" s="12"/>
+      <c r="G151" s="12"/>
+    </row>
+    <row r="152" spans="6:7">
       <c r="F152" s="12"/>
-    </row>
-    <row r="153" spans="5:6">
-      <c r="E153" s="12"/>
+      <c r="G152" s="12"/>
+    </row>
+    <row r="153" spans="6:7">
       <c r="F153" s="12"/>
-    </row>
-    <row r="154" spans="5:6">
-      <c r="E154" s="12"/>
+      <c r="G153" s="12"/>
+    </row>
+    <row r="154" spans="6:7">
       <c r="F154" s="12"/>
-    </row>
-    <row r="155" spans="5:6">
-      <c r="E155" s="12"/>
+      <c r="G154" s="12"/>
+    </row>
+    <row r="155" spans="6:7">
       <c r="F155" s="12"/>
-    </row>
-    <row r="156" spans="5:6">
-      <c r="E156" s="12"/>
+      <c r="G155" s="12"/>
+    </row>
+    <row r="156" spans="6:7">
       <c r="F156" s="12"/>
-    </row>
-    <row r="157" spans="5:6">
-      <c r="E157" s="12"/>
+      <c r="G156" s="12"/>
+    </row>
+    <row r="157" spans="6:7">
       <c r="F157" s="12"/>
-    </row>
-    <row r="158" spans="5:6">
-      <c r="E158" s="12"/>
+      <c r="G157" s="12"/>
+    </row>
+    <row r="158" spans="6:7">
       <c r="F158" s="12"/>
-    </row>
-    <row r="159" spans="5:6">
-      <c r="E159" s="12"/>
+      <c r="G158" s="12"/>
+    </row>
+    <row r="159" spans="6:7">
       <c r="F159" s="12"/>
-    </row>
-    <row r="160" spans="5:6">
-      <c r="E160" s="12"/>
+      <c r="G159" s="12"/>
+    </row>
+    <row r="160" spans="6:7">
       <c r="F160" s="12"/>
-    </row>
-    <row r="161" spans="5:6">
-      <c r="E161" s="12"/>
+      <c r="G160" s="12"/>
+    </row>
+    <row r="161" spans="6:7">
       <c r="F161" s="12"/>
-    </row>
-    <row r="162" spans="5:6">
-      <c r="E162" s="12"/>
+      <c r="G161" s="12"/>
+    </row>
+    <row r="162" spans="6:7">
       <c r="F162" s="12"/>
-    </row>
-    <row r="163" spans="5:6">
-      <c r="E163" s="12"/>
+      <c r="G162" s="12"/>
+    </row>
+    <row r="163" spans="6:7">
       <c r="F163" s="12"/>
-    </row>
-    <row r="164" spans="5:6">
-      <c r="E164" s="12"/>
+      <c r="G163" s="12"/>
+    </row>
+    <row r="164" spans="6:7">
       <c r="F164" s="12"/>
-    </row>
-    <row r="165" spans="5:6">
-      <c r="E165" s="12"/>
+      <c r="G164" s="12"/>
+    </row>
+    <row r="165" spans="6:7">
       <c r="F165" s="12"/>
-    </row>
-    <row r="166" spans="5:6">
-      <c r="E166" s="12"/>
+      <c r="G165" s="12"/>
+    </row>
+    <row r="166" spans="6:7">
       <c r="F166" s="12"/>
-    </row>
-    <row r="167" spans="5:6">
-      <c r="E167" s="12"/>
+      <c r="G166" s="12"/>
+    </row>
+    <row r="167" spans="6:7">
       <c r="F167" s="12"/>
-    </row>
-    <row r="168" spans="5:6">
-      <c r="E168" s="12"/>
+      <c r="G167" s="12"/>
+    </row>
+    <row r="168" spans="6:7">
       <c r="F168" s="12"/>
-    </row>
-    <row r="169" spans="5:6">
-      <c r="E169" s="12"/>
+      <c r="G168" s="12"/>
+    </row>
+    <row r="169" spans="6:7">
       <c r="F169" s="12"/>
-    </row>
-    <row r="170" spans="5:6">
-      <c r="E170" s="12"/>
+      <c r="G169" s="12"/>
+    </row>
+    <row r="170" spans="6:7">
       <c r="F170" s="12"/>
-    </row>
-    <row r="171" spans="5:6">
-      <c r="E171" s="12"/>
+      <c r="G170" s="12"/>
+    </row>
+    <row r="171" spans="6:7">
       <c r="F171" s="12"/>
-    </row>
-    <row r="172" spans="5:6">
-      <c r="E172" s="12"/>
+      <c r="G171" s="12"/>
+    </row>
+    <row r="172" spans="6:7">
       <c r="F172" s="12"/>
-    </row>
-    <row r="173" spans="5:6">
-      <c r="E173" s="12"/>
+      <c r="G172" s="12"/>
+    </row>
+    <row r="173" spans="6:7">
       <c r="F173" s="12"/>
-    </row>
-    <row r="174" spans="5:6">
-      <c r="E174" s="12"/>
+      <c r="G173" s="12"/>
+    </row>
+    <row r="174" spans="6:7">
       <c r="F174" s="12"/>
-    </row>
-    <row r="175" spans="5:6">
-      <c r="E175" s="12"/>
+      <c r="G174" s="12"/>
+    </row>
+    <row r="175" spans="6:7">
       <c r="F175" s="12"/>
-    </row>
-    <row r="176" spans="5:6">
-      <c r="E176" s="12"/>
+      <c r="G175" s="12"/>
+    </row>
+    <row r="176" spans="6:7">
       <c r="F176" s="12"/>
-    </row>
-    <row r="177" spans="5:6">
-      <c r="E177" s="12"/>
+      <c r="G176" s="12"/>
+    </row>
+    <row r="177" spans="6:7">
       <c r="F177" s="12"/>
-    </row>
-    <row r="178" spans="5:6">
-      <c r="E178" s="12"/>
+      <c r="G177" s="12"/>
+    </row>
+    <row r="178" spans="6:7">
       <c r="F178" s="12"/>
-    </row>
-    <row r="179" spans="5:6">
-      <c r="E179" s="12"/>
+      <c r="G178" s="12"/>
+    </row>
+    <row r="179" spans="6:7">
       <c r="F179" s="12"/>
-    </row>
-    <row r="180" spans="5:6">
-      <c r="E180" s="12"/>
+      <c r="G179" s="12"/>
+    </row>
+    <row r="180" spans="6:7">
       <c r="F180" s="12"/>
-    </row>
-    <row r="181" spans="5:6">
-      <c r="E181" s="12"/>
+      <c r="G180" s="12"/>
+    </row>
+    <row r="181" spans="6:7">
       <c r="F181" s="12"/>
-    </row>
-    <row r="182" spans="5:6">
-      <c r="E182" s="12"/>
+      <c r="G181" s="12"/>
+    </row>
+    <row r="182" spans="6:7">
       <c r="F182" s="12"/>
-    </row>
-    <row r="183" spans="5:6">
-      <c r="E183" s="12"/>
+      <c r="G182" s="12"/>
+    </row>
+    <row r="183" spans="6:7">
       <c r="F183" s="12"/>
-    </row>
-    <row r="184" spans="5:6">
-      <c r="E184" s="12"/>
+      <c r="G183" s="12"/>
+    </row>
+    <row r="184" spans="6:7">
       <c r="F184" s="12"/>
-    </row>
-    <row r="185" spans="5:6">
-      <c r="E185" s="12"/>
+      <c r="G184" s="12"/>
+    </row>
+    <row r="185" spans="6:7">
       <c r="F185" s="12"/>
-    </row>
-    <row r="186" spans="5:6">
-      <c r="E186" s="12"/>
+      <c r="G185" s="12"/>
+    </row>
+    <row r="186" spans="6:7">
       <c r="F186" s="12"/>
-    </row>
-    <row r="187" spans="5:6">
-      <c r="E187" s="12"/>
+      <c r="G186" s="12"/>
+    </row>
+    <row r="187" spans="6:7">
       <c r="F187" s="12"/>
-    </row>
-    <row r="188" spans="5:6">
-      <c r="E188" s="12"/>
+      <c r="G187" s="12"/>
+    </row>
+    <row r="188" spans="6:7">
       <c r="F188" s="12"/>
-    </row>
-    <row r="189" spans="5:6">
-      <c r="E189" s="12"/>
+      <c r="G188" s="12"/>
+    </row>
+    <row r="189" spans="6:7">
       <c r="F189" s="12"/>
-    </row>
-    <row r="190" spans="5:6">
-      <c r="E190" s="12"/>
+      <c r="G189" s="12"/>
+    </row>
+    <row r="190" spans="6:7">
       <c r="F190" s="12"/>
-    </row>
-    <row r="191" spans="5:6">
-      <c r="E191" s="12"/>
+      <c r="G190" s="12"/>
+    </row>
+    <row r="191" spans="6:7">
       <c r="F191" s="12"/>
-    </row>
-    <row r="192" spans="5:6">
-      <c r="E192" s="12"/>
+      <c r="G191" s="12"/>
+    </row>
+    <row r="192" spans="6:7">
       <c r="F192" s="12"/>
-    </row>
-    <row r="193" spans="5:6">
-      <c r="E193" s="12"/>
+      <c r="G192" s="12"/>
+    </row>
+    <row r="193" spans="6:7">
       <c r="F193" s="12"/>
-    </row>
-    <row r="194" spans="5:6">
-      <c r="E194" s="12"/>
+      <c r="G193" s="12"/>
+    </row>
+    <row r="194" spans="6:7">
       <c r="F194" s="12"/>
-    </row>
-    <row r="195" spans="5:6">
-      <c r="E195" s="12"/>
+      <c r="G194" s="12"/>
+    </row>
+    <row r="195" spans="6:7">
       <c r="F195" s="12"/>
-    </row>
-    <row r="196" spans="5:6">
-      <c r="E196" s="12"/>
+      <c r="G195" s="12"/>
+    </row>
+    <row r="196" spans="6:7">
       <c r="F196" s="12"/>
-    </row>
-    <row r="197" spans="5:6">
-      <c r="E197" s="12"/>
+      <c r="G196" s="12"/>
+    </row>
+    <row r="197" spans="6:7">
       <c r="F197" s="12"/>
-    </row>
-    <row r="198" spans="5:6">
-      <c r="E198" s="12"/>
+      <c r="G197" s="12"/>
+    </row>
+    <row r="198" spans="6:7">
       <c r="F198" s="12"/>
-    </row>
-    <row r="199" spans="5:6">
-      <c r="E199" s="12"/>
+      <c r="G198" s="12"/>
+    </row>
+    <row r="199" spans="6:7">
       <c r="F199" s="12"/>
-    </row>
-    <row r="200" spans="5:6">
-      <c r="E200" s="12"/>
+      <c r="G199" s="12"/>
+    </row>
+    <row r="200" spans="6:7">
       <c r="F200" s="12"/>
-    </row>
-    <row r="201" spans="5:6">
-      <c r="E201" s="12"/>
+      <c r="G200" s="12"/>
+    </row>
+    <row r="201" spans="6:7">
       <c r="F201" s="12"/>
-    </row>
-    <row r="202" spans="5:6">
-      <c r="E202" s="12"/>
+      <c r="G201" s="12"/>
+    </row>
+    <row r="202" spans="6:7">
       <c r="F202" s="12"/>
-    </row>
-    <row r="203" spans="5:6">
-      <c r="E203" s="12"/>
+      <c r="G202" s="12"/>
+    </row>
+    <row r="203" spans="6:7">
       <c r="F203" s="12"/>
-    </row>
-    <row r="204" spans="5:6">
-      <c r="E204" s="12"/>
+      <c r="G203" s="12"/>
+    </row>
+    <row r="204" spans="6:7">
       <c r="F204" s="12"/>
-    </row>
-    <row r="205" spans="5:6">
-      <c r="E205" s="12"/>
+      <c r="G204" s="12"/>
+    </row>
+    <row r="205" spans="6:7">
       <c r="F205" s="12"/>
-    </row>
-    <row r="206" spans="5:6">
-      <c r="E206" s="12"/>
+      <c r="G205" s="12"/>
+    </row>
+    <row r="206" spans="6:7">
       <c r="F206" s="12"/>
-    </row>
-    <row r="207" spans="5:6">
-      <c r="E207" s="12"/>
+      <c r="G206" s="12"/>
+    </row>
+    <row r="207" spans="6:7">
       <c r="F207" s="12"/>
-    </row>
-    <row r="208" spans="5:6">
-      <c r="E208" s="12"/>
+      <c r="G207" s="12"/>
+    </row>
+    <row r="208" spans="6:7">
       <c r="F208" s="12"/>
-    </row>
-    <row r="209" spans="5:6">
-      <c r="E209" s="12"/>
+      <c r="G208" s="12"/>
+    </row>
+    <row r="209" spans="6:7">
       <c r="F209" s="12"/>
-    </row>
-    <row r="210" spans="5:6">
-      <c r="E210" s="12"/>
+      <c r="G209" s="12"/>
+    </row>
+    <row r="210" spans="6:7">
       <c r="F210" s="12"/>
-    </row>
-    <row r="211" spans="5:6">
-      <c r="E211" s="12"/>
+      <c r="G210" s="12"/>
+    </row>
+    <row r="211" spans="6:7">
       <c r="F211" s="12"/>
-    </row>
-    <row r="212" spans="5:6">
-      <c r="E212" s="12"/>
+      <c r="G211" s="12"/>
+    </row>
+    <row r="212" spans="6:7">
       <c r="F212" s="12"/>
-    </row>
-    <row r="213" spans="5:6">
-      <c r="E213" s="12"/>
+      <c r="G212" s="12"/>
+    </row>
+    <row r="213" spans="6:7">
       <c r="F213" s="12"/>
-    </row>
-    <row r="214" spans="5:6">
-      <c r="E214" s="12"/>
+      <c r="G213" s="12"/>
+    </row>
+    <row r="214" spans="6:7">
       <c r="F214" s="12"/>
-    </row>
-    <row r="215" spans="5:6">
-      <c r="E215" s="12"/>
+      <c r="G214" s="12"/>
+    </row>
+    <row r="215" spans="6:7">
       <c r="F215" s="12"/>
-    </row>
-    <row r="216" spans="5:6">
-      <c r="E216" s="12"/>
+      <c r="G215" s="12"/>
+    </row>
+    <row r="216" spans="6:7">
       <c r="F216" s="12"/>
-    </row>
-    <row r="217" spans="5:6">
-      <c r="E217" s="12"/>
+      <c r="G216" s="12"/>
+    </row>
+    <row r="217" spans="6:7">
       <c r="F217" s="12"/>
-    </row>
-    <row r="218" spans="5:6">
-      <c r="E218" s="12"/>
+      <c r="G217" s="12"/>
+    </row>
+    <row r="218" spans="6:7">
       <c r="F218" s="12"/>
-    </row>
-    <row r="219" spans="5:6">
-      <c r="E219" s="12"/>
+      <c r="G218" s="12"/>
+    </row>
+    <row r="219" spans="6:7">
       <c r="F219" s="12"/>
-    </row>
-    <row r="220" spans="5:6">
-      <c r="E220" s="12"/>
+      <c r="G219" s="12"/>
+    </row>
+    <row r="220" spans="6:7">
       <c r="F220" s="12"/>
-    </row>
-    <row r="221" spans="5:6">
-      <c r="E221" s="12"/>
+      <c r="G220" s="12"/>
+    </row>
+    <row r="221" spans="6:7">
       <c r="F221" s="12"/>
-    </row>
-    <row r="222" spans="5:6">
-      <c r="E222" s="12"/>
+      <c r="G221" s="12"/>
+    </row>
+    <row r="222" spans="6:7">
       <c r="F222" s="12"/>
-    </row>
-    <row r="223" spans="5:6">
-      <c r="E223" s="12"/>
+      <c r="G222" s="12"/>
+    </row>
+    <row r="223" spans="6:7">
       <c r="F223" s="12"/>
-    </row>
-    <row r="224" spans="5:6">
-      <c r="E224" s="12"/>
+      <c r="G223" s="12"/>
+    </row>
+    <row r="224" spans="6:7">
       <c r="F224" s="12"/>
-    </row>
-    <row r="225" spans="5:6">
-      <c r="E225" s="12"/>
+      <c r="G224" s="12"/>
+    </row>
+    <row r="225" spans="6:7">
       <c r="F225" s="12"/>
+      <c r="G225" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
